--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -10,7 +10,7 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -32,9 +32,6 @@
     <t>CPI-U</t>
   </si>
   <si>
-    <t>CPI Detailed Report: Data for June 2015</t>
-  </si>
-  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -50,10 +47,13 @@
     <t>Multiply by to get 2012 Dollars</t>
   </si>
   <si>
-    <t>http://www.bls.gov/cpi/cpid1512.pdf</t>
-  </si>
-  <si>
-    <t>Page 74, Table 24 (continued)</t>
+    <t>https://www.bls.gov/cpi/cpid1705.pdf</t>
+  </si>
+  <si>
+    <t>CPI Detailed Report: Data for May 2017</t>
+  </si>
+  <si>
+    <t>Page 75, Table 24 (continued)</t>
   </si>
 </sst>
 </file>
@@ -449,17 +449,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,22 +469,22 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>136.19999999999999</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C27" si="0">B$24/B3</f>
+        <f t="shared" ref="C3:C28" si="0">B$24/B3</f>
         <v>1.6883553597650516</v>
       </c>
     </row>
@@ -826,6 +826,18 @@
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>0.97020044975676856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="2">
+        <v>241.23699999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95322856775701903</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59485A2-ADF5-4469-ABB4-3A063C7F174B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="20100" windowHeight="7410"/>
+    <workbookView xWindow="690" yWindow="1620" windowWidth="12720" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>CPI Consumer Price Index</t>
   </si>
@@ -29,9 +45,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>CPI-U</t>
-  </si>
-  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -47,19 +60,208 @@
     <t>Multiply by to get 2012 Dollars</t>
   </si>
   <si>
-    <t>https://www.bls.gov/cpi/cpid1705.pdf</t>
-  </si>
-  <si>
-    <t>CPI Detailed Report: Data for May 2017</t>
-  </si>
-  <si>
-    <t>Page 75, Table 24 (continued)</t>
+    <t>Historical CPI-U</t>
+  </si>
+  <si>
+    <t>Page 4</t>
+  </si>
+  <si>
+    <t>Historical Consumer Price Index for All Urban Consumers (CPI-U): U.S. city average, all items, index</t>
+  </si>
+  <si>
+    <t>averages — Continued</t>
+  </si>
+  <si>
+    <t>[1982-84=100, unless otherwise noted]</t>
+  </si>
+  <si>
+    <t>Semiannual averages</t>
+  </si>
+  <si>
+    <t>Annual avg.</t>
+  </si>
+  <si>
+    <t>Percent change from previous</t>
+  </si>
+  <si>
+    <t>1st half</t>
+  </si>
+  <si>
+    <t>2nd half</t>
+  </si>
+  <si>
+    <t>Dec.</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-201912.pdf</t>
+  </si>
+  <si>
+    <t>1968............................................................................. .</t>
+  </si>
+  <si>
+    <t>1969............................................................................. .</t>
+  </si>
+  <si>
+    <t>1970............................................................................. .</t>
+  </si>
+  <si>
+    <t>1971............................................................................. .</t>
+  </si>
+  <si>
+    <t>1972............................................................................. .</t>
+  </si>
+  <si>
+    <t>1973............................................................................. .</t>
+  </si>
+  <si>
+    <t>1974............................................................................. .</t>
+  </si>
+  <si>
+    <t>1975............................................................................. .</t>
+  </si>
+  <si>
+    <t>1976............................................................................. .</t>
+  </si>
+  <si>
+    <t>1977............................................................................. .</t>
+  </si>
+  <si>
+    <t>1978............................................................................. .</t>
+  </si>
+  <si>
+    <t>1979............................................................................. .</t>
+  </si>
+  <si>
+    <t>1980............................................................................. .</t>
+  </si>
+  <si>
+    <t>1981............................................................................. .</t>
+  </si>
+  <si>
+    <t>1982............................................................................. .</t>
+  </si>
+  <si>
+    <t>1983............................................................................. .</t>
+  </si>
+  <si>
+    <t>1984............................................................................. .</t>
+  </si>
+  <si>
+    <t>1985............................................................................. .</t>
+  </si>
+  <si>
+    <t>1986............................................................................. .</t>
+  </si>
+  <si>
+    <t>1987............................................................................. .</t>
+  </si>
+  <si>
+    <t>1988............................................................................. .</t>
+  </si>
+  <si>
+    <t>1989............................................................................. .</t>
+  </si>
+  <si>
+    <t>1990............................................................................. .</t>
+  </si>
+  <si>
+    <t>1991............................................................................. .</t>
+  </si>
+  <si>
+    <t>1992............................................................................. .</t>
+  </si>
+  <si>
+    <t>1993............................................................................. .</t>
+  </si>
+  <si>
+    <t>1994............................................................................. .</t>
+  </si>
+  <si>
+    <t>1995............................................................................. .</t>
+  </si>
+  <si>
+    <t>1996............................................................................. .</t>
+  </si>
+  <si>
+    <t>1997............................................................................. .</t>
+  </si>
+  <si>
+    <t>1998............................................................................. .</t>
+  </si>
+  <si>
+    <t>1999............................................................................. .</t>
+  </si>
+  <si>
+    <t>2000............................................................................. .</t>
+  </si>
+  <si>
+    <t>2001............................................................................. .</t>
+  </si>
+  <si>
+    <t>2002............................................................................. .</t>
+  </si>
+  <si>
+    <t>2003............................................................................. .</t>
+  </si>
+  <si>
+    <t>2004............................................................................. .</t>
+  </si>
+  <si>
+    <t>2005............................................................................. .</t>
+  </si>
+  <si>
+    <t>2006............................................................................. .</t>
+  </si>
+  <si>
+    <t>2007............................................................................. .</t>
+  </si>
+  <si>
+    <t>2008............................................................................. .</t>
+  </si>
+  <si>
+    <t>2009............................................................................. .</t>
+  </si>
+  <si>
+    <t>2010............................................................................. .</t>
+  </si>
+  <si>
+    <t>2011............................................................................. .</t>
+  </si>
+  <si>
+    <t>2012............................................................................. .</t>
+  </si>
+  <si>
+    <t>2013............................................................................. .</t>
+  </si>
+  <si>
+    <t>2014............................................................................. .</t>
+  </si>
+  <si>
+    <t>2015............................................................................. .</t>
+  </si>
+  <si>
+    <t>2016............................................................................. .</t>
+  </si>
+  <si>
+    <t>2017............................................................................. .</t>
+  </si>
+  <si>
+    <t>2018............................................................................. .</t>
+  </si>
+  <si>
+    <t>2019............................................................................. .</t>
+  </si>
+  <si>
+    <t>2020............................................................................. .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -110,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -123,6 +325,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -184,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +420,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,10 +664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -449,398 +688,1383 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E6">
+        <v>4.7</v>
+      </c>
+      <c r="F6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E7">
+        <v>6.2</v>
+      </c>
+      <c r="F7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E8">
+        <v>5.6</v>
+      </c>
+      <c r="F8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>40.5</v>
+      </c>
+      <c r="E9">
+        <v>3.3</v>
+      </c>
+      <c r="F9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>41.8</v>
+      </c>
+      <c r="E10">
+        <v>3.4</v>
+      </c>
+      <c r="F10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>44.4</v>
+      </c>
+      <c r="E11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>49.3</v>
+      </c>
+      <c r="E12">
+        <v>12.3</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>53.8</v>
+      </c>
+      <c r="E13">
+        <v>6.9</v>
+      </c>
+      <c r="F13">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>56.9</v>
+      </c>
+      <c r="E14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F14">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>60.6</v>
+      </c>
+      <c r="E15">
+        <v>6.7</v>
+      </c>
+      <c r="F15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>65.2</v>
+      </c>
+      <c r="E16">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="F16">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E17">
+        <v>13.3</v>
+      </c>
+      <c r="F17">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>82.4</v>
+      </c>
+      <c r="E18">
+        <v>12.5</v>
+      </c>
+      <c r="F18">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>90.9</v>
+      </c>
+      <c r="E19">
+        <v>8.9</v>
+      </c>
+      <c r="F19">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>96.5</v>
+      </c>
+      <c r="E20">
+        <v>3.8</v>
+      </c>
+      <c r="F20">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>99.6</v>
+      </c>
+      <c r="E21">
+        <v>3.8</v>
+      </c>
+      <c r="F21">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>102.9</v>
+      </c>
+      <c r="C22">
+        <v>104.9</v>
+      </c>
+      <c r="D22">
+        <v>103.9</v>
+      </c>
+      <c r="E22">
+        <v>3.9</v>
+      </c>
+      <c r="F22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>106.6</v>
+      </c>
+      <c r="C23">
+        <v>108.5</v>
+      </c>
+      <c r="D23">
+        <v>107.6</v>
+      </c>
+      <c r="E23">
+        <v>3.8</v>
+      </c>
+      <c r="F23">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>109.1</v>
+      </c>
+      <c r="C24">
+        <v>110.1</v>
+      </c>
+      <c r="D24">
+        <v>109.6</v>
+      </c>
+      <c r="E24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>112.4</v>
+      </c>
+      <c r="C25">
+        <v>114.9</v>
+      </c>
+      <c r="D25">
+        <v>113.6</v>
+      </c>
+      <c r="E25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>116.8</v>
+      </c>
+      <c r="C26">
+        <v>119.7</v>
+      </c>
+      <c r="D26">
+        <v>118.3</v>
+      </c>
+      <c r="E26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F26">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>122.7</v>
+      </c>
+      <c r="C27">
+        <v>125.3</v>
+      </c>
+      <c r="D27">
+        <v>124</v>
+      </c>
+      <c r="E27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="C28">
+        <v>132.6</v>
+      </c>
+      <c r="D28">
         <v>130.69999999999999</v>
       </c>
-      <c r="C2" s="4">
-        <f>B$24/B2</f>
-        <v>1.7594032134659527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="E28">
+        <v>6.1</v>
+      </c>
+      <c r="F28">
+        <v>5.4</v>
+      </c>
+      <c r="G28" s="6">
+        <f>$D$50/D28</f>
+        <v>1.7566488140780414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="C29">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D29">
         <v>136.19999999999999</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C28" si="0">B$24/B3</f>
-        <v>1.6883553597650516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="E29">
+        <v>3.1</v>
+      </c>
+      <c r="F29">
+        <v>4.2</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" ref="G29:G57" si="0">$D$50/D29</f>
+        <v>1.6857121879588841</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="C30">
+        <v>141.4</v>
+      </c>
+      <c r="D30">
         <v>140.30000000000001</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.639016393442623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="E30">
+        <v>2.9</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6364504632929435</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="C31">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="D31">
         <v>144.5</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5913771626297579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E31">
+        <v>2.7</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5888858131487889</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="C32">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="D32">
         <v>148.19999999999999</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5516464237516872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="E32">
+        <v>2.7</v>
+      </c>
+      <c r="F32">
+        <v>2.6</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5492172739541161</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>151.5</v>
+      </c>
+      <c r="C33">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="D33">
         <v>152.4</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5088845144356955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33">
+        <v>2.8</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5065223097112861</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="C34">
+        <v>157.9</v>
+      </c>
+      <c r="D34">
         <v>156.9</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.465608667941364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="E34">
+        <v>3.3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4633142128744423</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>159.9</v>
+      </c>
+      <c r="C35">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="D35">
         <v>160.5</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.432735202492212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="E35">
+        <v>1.7</v>
+      </c>
+      <c r="F35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4304922118380061</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="C36">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="D36">
         <v>163</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.410760736196319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="E36">
+        <v>1.6</v>
+      </c>
+      <c r="F36">
+        <v>1.6</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4085521472392637</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>165.4</v>
+      </c>
+      <c r="C37">
+        <v>167.8</v>
+      </c>
+      <c r="D37">
         <v>166.6</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3802761104441779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="E37">
+        <v>2.7</v>
+      </c>
+      <c r="F37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3781152460984394</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>170.8</v>
+      </c>
+      <c r="C38">
+        <v>173.6</v>
+      </c>
+      <c r="D38">
         <v>172.2</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3353890824622534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="E38">
+        <v>3.4</v>
+      </c>
+      <c r="F38">
+        <v>3.4</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3332984901277585</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>176.6</v>
+      </c>
+      <c r="C39">
+        <v>177.5</v>
+      </c>
+      <c r="D39">
         <v>177.1</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2984415584415585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="E39">
+        <v>1.6</v>
+      </c>
+      <c r="F39">
+        <v>2.8</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2964088085827217</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>178.9</v>
+      </c>
+      <c r="C40">
+        <v>180.9</v>
+      </c>
+      <c r="D40">
         <v>179.9</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2782323513062812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="E40">
+        <v>2.4</v>
+      </c>
+      <c r="F40">
+        <v>1.6</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>1.276231239577543</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>183.3</v>
+      </c>
+      <c r="C41">
+        <v>184.6</v>
+      </c>
+      <c r="D41">
         <v>184</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2497500000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="E41">
+        <v>1.9</v>
+      </c>
+      <c r="F41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2477934782608695</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>187.6</v>
+      </c>
+      <c r="C42">
+        <v>190.2</v>
+      </c>
+      <c r="D42">
         <v>188.9</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2173319216516676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="E42">
+        <v>3.3</v>
+      </c>
+      <c r="F42">
+        <v>2.7</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2154261514028586</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>193.2</v>
+      </c>
+      <c r="C43">
+        <v>197.4</v>
+      </c>
+      <c r="D43">
         <v>195.3</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1774398361495135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="E43">
+        <v>3.4</v>
+      </c>
+      <c r="F43">
+        <v>3.4</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1755965181771633</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>200.6</v>
+      </c>
+      <c r="C44">
+        <v>202.6</v>
+      </c>
+      <c r="D44">
         <v>201.6</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1406448412698413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>3.2</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1388591269841271</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>205.709</v>
+      </c>
+      <c r="C45">
+        <v>208.976</v>
+      </c>
+      <c r="D45">
         <v>207.34200000000001</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1090565346143086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="E45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F45">
+        <v>2.8</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>1.107320272786025</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>214.429</v>
+      </c>
+      <c r="C46">
+        <v>216.17699999999999</v>
+      </c>
+      <c r="D46">
         <v>215.303</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0680482854395899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>3.8</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0663762232760343</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>213.13900000000001</v>
+      </c>
+      <c r="C47">
+        <v>215.935</v>
+      </c>
+      <c r="D47">
         <v>214.53700000000001</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0718617301444506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="E47">
+        <v>2.7</v>
+      </c>
+      <c r="F47">
+        <v>-0.4</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0701836979169095</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>217.535</v>
+      </c>
+      <c r="C48">
+        <v>218.57599999999999</v>
+      </c>
+      <c r="D48">
         <v>218.05600000000001</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0545639652199434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="E48">
+        <v>1.5</v>
+      </c>
+      <c r="F48">
+        <v>1.6</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0529130131709286</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <v>223.59800000000001</v>
+      </c>
+      <c r="C49">
+        <v>226.28</v>
+      </c>
+      <c r="D49">
         <v>224.93899999999999</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0222949332930262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B24" s="2">
-        <v>229.95400000000001</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>3.2</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0206944993976144</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>228.85</v>
+      </c>
+      <c r="C50">
+        <v>230.33799999999999</v>
+      </c>
+      <c r="D50">
+        <v>229.59399999999999</v>
+      </c>
+      <c r="E50">
+        <v>1.7</v>
+      </c>
+      <c r="F50">
+        <v>2.1</v>
+      </c>
+      <c r="G50" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51">
+        <v>232.36600000000001</v>
+      </c>
+      <c r="C51">
+        <v>233.548</v>
+      </c>
+      <c r="D51">
         <v>232.95699999999999</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.98710920899565158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="E51">
+        <v>1.5</v>
+      </c>
+      <c r="F51">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98556385942470071</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>236.38399999999999</v>
+      </c>
+      <c r="C52">
+        <v>237.08799999999999</v>
+      </c>
+      <c r="D52">
         <v>236.73599999999999</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97135205460935392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="E52">
+        <v>0.8</v>
+      </c>
+      <c r="F52">
+        <v>1.6</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96983137334414704</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>236.26499999999999</v>
+      </c>
+      <c r="C53">
+        <v>237.76900000000001</v>
+      </c>
+      <c r="D53">
         <v>237.017</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97020044975676856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
+        <v>238.77799999999999</v>
+      </c>
+      <c r="C54">
         <v>241.23699999999999</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="0"/>
-        <v>0.95322856775701903</v>
+      <c r="D54">
+        <v>240.00700000000001</v>
+      </c>
+      <c r="E54">
+        <v>2.1</v>
+      </c>
+      <c r="F54">
+        <v>1.3</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95661376543184151</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>244.07599999999999</v>
+      </c>
+      <c r="C55">
+        <v>246.16300000000001</v>
+      </c>
+      <c r="D55">
+        <v>245.12</v>
+      </c>
+      <c r="E55">
+        <v>2.1</v>
+      </c>
+      <c r="F55">
+        <v>2.1</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93665959530026111</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56">
+        <v>250.089</v>
+      </c>
+      <c r="C56">
+        <v>252.125</v>
+      </c>
+      <c r="D56">
+        <v>251.107</v>
+      </c>
+      <c r="E56">
+        <v>1.9</v>
+      </c>
+      <c r="F56">
+        <v>2.4</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57">
+        <v>254.41200000000001</v>
+      </c>
+      <c r="C57">
+        <v>256.90300000000002</v>
+      </c>
+      <c r="D57">
+        <v>255.65700000000001</v>
+      </c>
+      <c r="E57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F57">
+        <v>1.8</v>
+      </c>
+      <c r="G57" s="6">
+        <f>$D$50/D57</f>
+        <v>0.89805481563188172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58">
+        <v>257.55700000000002</v>
+      </c>
+      <c r="C58">
+        <v>260.065</v>
+      </c>
+      <c r="D58">
+        <v>258.81099999999998</v>
+      </c>
+      <c r="E58">
+        <v>1.4</v>
+      </c>
+      <c r="F58">
+        <v>1.2</v>
+      </c>
+      <c r="G58" s="6">
+        <f>$D$50/D58</f>
+        <v>0.88711067149387013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>